--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2046.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2046.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156473648882115</v>
+        <v>1.294417977333069</v>
       </c>
       <c r="B1">
-        <v>2.555005215009315</v>
+        <v>2.045036554336548</v>
       </c>
       <c r="C1">
-        <v>5.702094985481887</v>
+        <v>5.383988857269287</v>
       </c>
       <c r="D1">
-        <v>2.437295681906591</v>
+        <v>1.91789710521698</v>
       </c>
       <c r="E1">
-        <v>1.213766307298057</v>
+        <v>1.096792459487915</v>
       </c>
     </row>
   </sheetData>
